--- a/assets/data/ItemSetConfig.xlsx
+++ b/assets/data/ItemSetConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1860C65-A1B9-48F5-8AB9-04DBD55BD2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A6E62D-EA1D-4B30-9A2F-33F9714BC776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9315" yWindow="8685" windowWidth="15150" windowHeight="11115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2265" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]VarAttr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,6 +97,9 @@
   <si>
     <t>IATTR_SET_ZANDALARI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]IVarAttr</t>
   </si>
 </sst>
 </file>
@@ -111,13 +110,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -126,14 +125,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,9 +154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,14 +441,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -463,18 +470,18 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -485,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -496,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -507,40 +514,40 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
